--- a/Excel tabla.xlsx
+++ b/Excel tabla.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D771C8B-6D9D-4A22-B978-FC3229FE6C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Hora</t>
   </si>
@@ -76,12 +77,15 @@
   </si>
   <si>
     <t>algebra</t>
+  </si>
+  <si>
+    <t>Horario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +151,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Pontificia Universidad Católica del Ecuador Sede Esmeraldas"/>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Pontificia Universidad Católica del Ecuador Sede Esmeraldas">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -191,15 +201,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="C6:H13" totalsRowShown="0">
-  <autoFilter ref="C6:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="C6:H13" totalsRowShown="0">
+  <autoFilter ref="C6:H13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Hora"/>
-    <tableColumn id="2" name="Lunes"/>
-    <tableColumn id="3" name="Martes"/>
-    <tableColumn id="4" name="Miercoles"/>
-    <tableColumn id="5" name="Jueves"/>
-    <tableColumn id="6" name="Viernes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Hora"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lunes"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Martes"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Miercoles"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Jueves"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Viernes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -467,14 +477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C6:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="8" width="12" customWidth="1"/>
   </cols>
@@ -575,6 +585,11 @@
       </c>
       <c r="G12" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
